--- a/test/NetCashACH_AIGen03_.xlsx
+++ b/test/NetCashACH_AIGen03_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\dev1\crm\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6DFE09-4292-4BCC-9BD2-F3DCD112A7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0CE58A-881F-4D6A-84AE-40431E003C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E15220EF-D858-4C01-941F-8FE4BDEF97A4}"/>
+    <workbookView xWindow="-22572" yWindow="216" windowWidth="22056" windowHeight="12732" xr2:uid="{E15220EF-D858-4C01-941F-8FE4BDEF97A4}"/>
   </bookViews>
   <sheets>
     <sheet name="E-Check" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="122">
   <si>
     <t>Customer Account</t>
   </si>
@@ -310,13 +310,94 @@
   </si>
   <si>
     <t>6970 Valles Marineris Court Apt. 3333, Nebula Street, Olympus Mons, Antares</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +432,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -372,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,6 +469,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,821 +784,908 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F852903C-3D9B-4ED8-8E7C-0C01CA577F6E}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="59.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="59.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2">
         <v>59046</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>5000</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2">
         <v>64382</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>250</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2">
         <v>56784</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>8000</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="2">
         <v>65231</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>1500</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
         <v>53782</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>300</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2">
         <v>67123</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>2000</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2">
         <v>69824</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>700</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="2">
         <v>61324</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>150</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2">
         <v>69134</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>1200</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="2">
         <v>56871</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>430</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="2">
         <v>62431</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>7600</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="2">
         <v>53214</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>880</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2">
         <v>67125</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>1500</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="2">
         <v>56832</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>750</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="2">
         <v>69871</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>130</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2">
         <v>52984</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>2600</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="2">
         <v>67123</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>400</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="J18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="2">
         <v>69832</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>7200</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="J19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="2">
         <v>53214</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>1000</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="J20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="2">
         <v>56832</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>1050</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="5">
         <v>69821</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>820</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
       <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="2">
         <v>61324</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>350</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24">
         <v>56832</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2100</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
       <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25">
         <v>69871</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>350</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
       <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26">
         <v>56832</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>200</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F26" t="s">
-        <v>2</v>
-      </c>
       <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27">
         <v>63451</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>600</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
       <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28">
-        <v>55110</v>
+        <f>SUM(C2:C27)</f>
+        <v>47060</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
+      <c r="D28" s="1"/>
+      <c r="F28"/>
+      <c r="H28" s="2"/>
+      <c r="I28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G9">
-    <sortCondition descending="1" ref="G2:G9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H9">
+    <sortCondition descending="1" ref="H2:H9"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
